--- a/NumberItemCrosswalk.xlsx
+++ b/NumberItemCrosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HMIS\Dashboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GwenBeebe\Documents\R\CHIP_HMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846D9B82-468A-4A12-AA04-5942E388B28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A16AD-E4E4-4820-9DE6-4A43A8E182FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{DF252ECE-73B9-42B2-8157-CC0A81FF5B03}"/>
+    <workbookView xWindow="6918" yWindow="3732" windowWidth="16122" windowHeight="8646" activeTab="8" xr2:uid="{DF252ECE-73B9-42B2-8157-CC0A81FF5B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Race" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,17 @@
     <sheet name="Ethnicity" sheetId="3" r:id="rId3"/>
     <sheet name="Gender" sheetId="4" r:id="rId4"/>
     <sheet name="Program Type" sheetId="5" r:id="rId5"/>
+    <sheet name="Prior Residence" sheetId="6" r:id="rId6"/>
+    <sheet name="Length of Stay" sheetId="7" r:id="rId7"/>
+    <sheet name="Times Homeless" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Gender!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Length of Stay'!$A$1:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Prior Residence'!$A$1:$C$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Program Type'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Times Homeless'!$A$1:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
   <si>
     <t>Item</t>
   </si>
@@ -150,6 +157,192 @@
   </si>
   <si>
     <t>PH – Housing Only</t>
+  </si>
+  <si>
+    <t>Staying or living in a friend's room, apartment or house</t>
+  </si>
+  <si>
+    <t>Transitional housing for homeless persons (including homeless youth)</t>
+  </si>
+  <si>
+    <t>Hotel or motel paid for without emergency shelter voucher</t>
+  </si>
+  <si>
+    <t>Foster care home or foster care group home</t>
+  </si>
+  <si>
+    <t>Place not meant for habitation</t>
+  </si>
+  <si>
+    <t>Emergency shelter, including hotel or motel paid for with emergency shelter voucher, or RHY-funded Host Home shelter</t>
+  </si>
+  <si>
+    <t>Psychiatric hospital or other psychiatric facility</t>
+  </si>
+  <si>
+    <t>Staying or living in a family member's room, apartment or house</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Substance abuse treatment facility or detox center</t>
+  </si>
+  <si>
+    <t>Hospital or other residential non-psychiatric medical facility</t>
+  </si>
+  <si>
+    <t>Jail, prison or juvenile detention facility</t>
+  </si>
+  <si>
+    <t>Rental by client, no ongoing housing subsidy</t>
+  </si>
+  <si>
+    <t>Safe Haven</t>
+  </si>
+  <si>
+    <t>Rental by client, with other ongoing housing subsidy</t>
+  </si>
+  <si>
+    <t>Owned by client, with ongoing housing subsidy</t>
+  </si>
+  <si>
+    <t>Rental by client, with VASH housing subsidy</t>
+  </si>
+  <si>
+    <t>Residential project or halfway house with no homeless criteria</t>
+  </si>
+  <si>
+    <t>Owned by client, no ongoing housing subsidy</t>
+  </si>
+  <si>
+    <t>Permanent housing (other than RRH) for formerly homeless persons</t>
+  </si>
+  <si>
+    <t>Rental by client, with GPD TIP housing subsidy</t>
+  </si>
+  <si>
+    <t>Long-term care facility or nursing home</t>
+  </si>
+  <si>
+    <t>Rental by client, with HCV voucher (tenant or project based)</t>
+  </si>
+  <si>
+    <t>Rental by client in a public housing unit</t>
+  </si>
+  <si>
+    <t>Rental by client, with RRH or equivalent subsidy</t>
+  </si>
+  <si>
+    <t>Host Home (non-crisis)</t>
+  </si>
+  <si>
+    <t>Situation Type</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>One week or more, but less than one month</t>
+  </si>
+  <si>
+    <t>One month or more, but less than 90 days</t>
+  </si>
+  <si>
+    <t>Two to six nights</t>
+  </si>
+  <si>
+    <t>90 days or more, but less than one year</t>
+  </si>
+  <si>
+    <t>One night or less</t>
+  </si>
+  <si>
+    <t>One year or longer</t>
+  </si>
+  <si>
+    <t>Two times</t>
+  </si>
+  <si>
+    <t>One time</t>
+  </si>
+  <si>
+    <t>Four or more times</t>
+  </si>
+  <si>
+    <t>Three times</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ssn</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>veteran</t>
+  </si>
+  <si>
+    <t>clientlocation</t>
+  </si>
+  <si>
+    <t>disabilingyn</t>
+  </si>
+  <si>
+    <t>disablingpresent</t>
+  </si>
+  <si>
+    <t>incomeyn</t>
+  </si>
+  <si>
+    <t>incomepresent</t>
+  </si>
+  <si>
+    <t>benefitsyn</t>
+  </si>
+  <si>
+    <t>benefitspresent</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>plspresent</t>
+  </si>
+  <si>
+    <t>plscomplete</t>
+  </si>
+  <si>
+    <t>hoh</t>
+  </si>
+  <si>
+    <t>not hoh</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -177,12 +370,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -213,6 +430,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82398E1-ABE5-4A31-AAB7-B2E21E2889DA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -979,4 +1200,817 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59611D4-D4C1-4BD9-85DD-953DD88659F4}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="8">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="8">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9">
+        <v>6</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9">
+        <v>7</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="10">
+        <v>8</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10">
+        <v>9</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10">
+        <v>17</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10">
+        <v>99</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C31" xr:uid="{A2ED04CA-00BC-4215-8CD4-794590B3F30C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+      <sortCondition ref="C1:C31"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26723FDF-023D-4298-828E-E16FFF36A877}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289AB4A8-A776-477A-B45A-2CCC89CFA41D}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.47265625" customWidth="1"/>
+    <col min="2" max="2" width="26.83984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574010E-EAF3-47E7-8341-7A4895228424}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B12" activeCellId="1" sqref="B9 B12:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.5234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NumberItemCrosswalk.xlsx
+++ b/NumberItemCrosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GwenBeebe\Documents\R\CHIP_HMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A16AD-E4E4-4820-9DE6-4A43A8E182FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B64683-FC0F-4D12-9998-F8FBE12617B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6918" yWindow="3732" windowWidth="16122" windowHeight="8646" activeTab="8" xr2:uid="{DF252ECE-73B9-42B2-8157-CC0A81FF5B03}"/>
+    <workbookView xWindow="6" yWindow="366" windowWidth="23034" windowHeight="12354" activeTab="4" xr2:uid="{DF252ECE-73B9-42B2-8157-CC0A81FF5B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Race" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Gender!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Length of Stay'!$A$1:$B$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Prior Residence'!$A$1:$C$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Program Type'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Program Type'!$A$1:$B$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Times Homeless'!$A$1:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
   <si>
     <t>Item</t>
   </si>
@@ -1093,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82398E1-ABE5-4A31-AAB7-B2E21E2889DA}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1151,49 +1151,57 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1758,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574010E-EAF3-47E7-8341-7A4895228424}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B12" activeCellId="1" sqref="B9 B12:B18"/>
     </sheetView>
   </sheetViews>
